--- a/Output.xlsx
+++ b/Output.xlsx
@@ -476,40 +476,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$B$1</c:f>
+              <c:f>'Girona vs AlmerÃ­a'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Girona</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
+              <c:f>'Girona vs AlmerÃ­a'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$B$2:$B$3</c:f>
+              <c:f>'Girona vs AlmerÃ­a'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,428 +568,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$C$1</c:f>
+              <c:f>'Girona vs AlmerÃ­a'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>AlmerÃ­a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
+              <c:f>'Girona vs AlmerÃ­a'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$C$2:$C$3</c:f>
+              <c:f>'Girona vs AlmerÃ­a'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>17</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Girona vs AlmerÃ­a'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Girona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AlmerÃ­a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Girona vs AlmerÃ­a'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1004,40 +713,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Getafe vs Valencia'!$B$1</c:f>
+              <c:f>'Getafe vs Valencia'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Getafe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
+              <c:f>'Getafe vs Valencia'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Valencia</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Getafe vs Valencia'!$B$2:$B$3</c:f>
+              <c:f>'Getafe vs Valencia'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,428 +805,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Getafe vs Valencia'!$C$1</c:f>
+              <c:f>'Getafe vs Valencia'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Valencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
+              <c:f>'Getafe vs Valencia'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Valencia</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Getafe vs Valencia'!$C$2:$C$3</c:f>
+              <c:f>'Getafe vs Valencia'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>1.5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Getafe vs Valencia'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Getafe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valencia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Getafe vs Valencia'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1532,40 +950,87 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$B$1</c:f>
+              <c:f>'Datos en bruto'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nombre</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$B$2:$B$3</c:f>
+              <c:f>'Datos en bruto'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1577,41 +1042,88 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$C$1</c:f>
+              <c:f>'Datos en bruto'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>puntos</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$C$2:$C$3</c:f>
+              <c:f>'Datos en bruto'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,41 +1134,88 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$D$1</c:f>
+              <c:f>'Datos en bruto'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>partidos</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$D$2:$D$3</c:f>
+              <c:f>'Datos en bruto'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,41 +1226,88 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$E$1</c:f>
+              <c:f>'Datos en bruto'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ganados</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$E$2:$E$3</c:f>
+              <c:f>'Datos en bruto'!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,41 +1318,88 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$F$1</c:f>
+              <c:f>'Datos en bruto'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>empatados</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$F$2:$F$3</c:f>
+              <c:f>'Datos en bruto'!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,41 +1410,88 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$G$1</c:f>
+              <c:f>'Datos en bruto'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>perdidos</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$G$2:$G$3</c:f>
+              <c:f>'Datos en bruto'!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,41 +1502,88 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$H$1</c:f>
+              <c:f>'Datos en bruto'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>afavor</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$H$2:$H$3</c:f>
+              <c:f>'Datos en bruto'!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,41 +1594,88 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$I$1</c:f>
+              <c:f>'Datos en bruto'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>encontra</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$I$2:$I$3</c:f>
+              <c:f>'Datos en bruto'!$B$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,40 +1686,87 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$J$1</c:f>
+              <c:f>'Datos en bruto'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ha Ganado vs</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$J$2:$J$3</c:f>
+              <c:f>'Datos en bruto'!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1937,40 +1778,87 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$K$1</c:f>
+              <c:f>'Datos en bruto'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ha perdido vs</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$K$2:$K$3</c:f>
+              <c:f>'Datos en bruto'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1982,40 +1870,87 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$L$1</c:f>
+              <c:f>'Datos en bruto'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ha empatado vs</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$L$2:$L$3</c:f>
+              <c:f>'Datos en bruto'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2027,41 +1962,88 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$M$1</c:f>
+              <c:f>'Datos en bruto'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$M$2:$M$3</c:f>
+              <c:f>'Datos en bruto'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,41 +2054,88 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$N$1</c:f>
+              <c:f>'Datos en bruto'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$N$2:$N$3</c:f>
+              <c:f>'Datos en bruto'!$B$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,41 +2146,88 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$O$1</c:f>
+              <c:f>'Datos en bruto'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$O$2:$O$3</c:f>
+              <c:f>'Datos en bruto'!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,40 +2238,87 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$P$1</c:f>
+              <c:f>'Datos en bruto'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$P$2:$P$3</c:f>
+              <c:f>'Datos en bruto'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2207,41 +2330,88 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$Q$1</c:f>
+              <c:f>'Datos en bruto'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$Q$2:$Q$3</c:f>
+              <c:f>'Datos en bruto'!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,40 +2422,87 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$R$1</c:f>
+              <c:f>'Datos en bruto'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$R$2:$R$3</c:f>
+              <c:f>'Datos en bruto'!$B$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2297,41 +2514,88 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$S$1</c:f>
+              <c:f>'Datos en bruto'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$S$2:$S$3</c:f>
+              <c:f>'Datos en bruto'!$B$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,41 +2606,88 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$T$1</c:f>
+              <c:f>'Datos en bruto'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$T$2:$T$3</c:f>
+              <c:f>'Datos en bruto'!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,123 +2698,89 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos en bruto'!$U$1</c:f>
+              <c:f>'Datos en bruto'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Datos en bruto'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nombre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>puntos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>partidos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ganados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>empatados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perdidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>afavor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>encontra</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ha Ganado vs</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ha perdido vs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos en bruto'!$U$2:$U$3</c:f>
+              <c:f>'Datos en bruto'!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos en bruto'!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$V$2:$V$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos en bruto'!$W$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Datos en bruto'!$W$2:$W$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2518,7 +2795,6 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50110002"/>
         <c:crosses val="autoZero"/>
@@ -2567,40 +2843,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$B$1</c:f>
+              <c:f>'R. Sociedad vs Celta'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>R. Sociedad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
+              <c:f>'R. Sociedad vs Celta'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Celta</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$B$2:$B$3</c:f>
+              <c:f>'R. Sociedad vs Celta'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,428 +2935,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$C$1</c:f>
+              <c:f>'R. Sociedad vs Celta'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Celta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
+              <c:f>'R. Sociedad vs Celta'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Celta</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$C$2:$C$3</c:f>
+              <c:f>'R. Sociedad vs Celta'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>1.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'R. Sociedad vs Celta'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R. Sociedad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Celta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'R. Sociedad vs Celta'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3095,40 +3080,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$B$1</c:f>
+              <c:f>'Real Betis vs Real Valladolid'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Real Betis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
+              <c:f>'Real Betis vs Real Valladolid'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$B$2:$B$3</c:f>
+              <c:f>'Real Betis vs Real Valladolid'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,428 +3172,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$C$1</c:f>
+              <c:f>'Real Betis vs Real Valladolid'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Real Valladolid</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
+              <c:f>'Real Betis vs Real Valladolid'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$C$2:$C$3</c:f>
+              <c:f>'Real Betis vs Real Valladolid'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Real Betis vs Real Valladolid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Real Betis</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Valladolid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Real Betis vs Real Valladolid'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3623,40 +3317,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$B$1</c:f>
+              <c:f>'Mallorca vs Villarreal'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Mallorca</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
+              <c:f>'Mallorca vs Villarreal'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$B$2:$B$3</c:f>
+              <c:f>'Mallorca vs Villarreal'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3667,428 +3409,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$C$1</c:f>
+              <c:f>'Mallorca vs Villarreal'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Villarreal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
+              <c:f>'Mallorca vs Villarreal'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$C$2:$C$3</c:f>
+              <c:f>'Mallorca vs Villarreal'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>18</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Mallorca vs Villarreal'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mallorca</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Villarreal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Mallorca vs Villarreal'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4151,40 +3554,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$B$1</c:f>
+              <c:f>'Osasuna vs Real Madrid'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Osasuna</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
+              <c:f>'Osasuna vs Real Madrid'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$B$2:$B$3</c:f>
+              <c:f>'Osasuna vs Real Madrid'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,428 +3646,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$C$1</c:f>
+              <c:f>'Osasuna vs Real Madrid'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Real Madrid</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
+              <c:f>'Osasuna vs Real Madrid'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$C$2:$C$3</c:f>
+              <c:f>'Osasuna vs Real Madrid'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Osasuna vs Real Madrid'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Osasuna</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real Madrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Osasuna vs Real Madrid'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4679,40 +3791,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Elche vs Espanyol'!$B$1</c:f>
+              <c:f>'Elche vs Espanyol'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Elche</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
+              <c:f>'Elche vs Espanyol'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Elche vs Espanyol'!$B$2:$B$3</c:f>
+              <c:f>'Elche vs Espanyol'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4723,428 +3883,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Elche vs Espanyol'!$C$1</c:f>
+              <c:f>'Elche vs Espanyol'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Espanyol</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
+              <c:f>'Elche vs Espanyol'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Elche vs Espanyol'!$C$2:$C$3</c:f>
+              <c:f>'Elche vs Espanyol'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>1.75</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>19</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Elche vs Espanyol'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Elche</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espanyol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Elche vs Espanyol'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5207,40 +4028,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$B$1</c:f>
+              <c:f>'Rayo Vallecano vs Sevilla'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Rayo Vallecano</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
+              <c:f>'Rayo Vallecano vs Sevilla'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$B$2:$B$3</c:f>
+              <c:f>'Rayo Vallecano vs Sevilla'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5251,428 +4120,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$C$1</c:f>
+              <c:f>'Rayo Vallecano vs Sevilla'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Sevilla</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
+              <c:f>'Rayo Vallecano vs Sevilla'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$C$2:$C$3</c:f>
+              <c:f>'Rayo Vallecano vs Sevilla'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Rayo Vallecano</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sevilla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Rayo Vallecano vs Sevilla'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5735,40 +4265,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$B$1</c:f>
+              <c:f>'AtlÃ©tico vs Athletic'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>AtlÃ©tico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
+              <c:f>'AtlÃ©tico vs Athletic'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Athletic</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$B$2:$B$3</c:f>
+              <c:f>'AtlÃ©tico vs Athletic'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5779,428 +4357,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$C$1</c:f>
+              <c:f>'AtlÃ©tico vs Athletic'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>Athletic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
+              <c:f>'AtlÃ©tico vs Athletic'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Athletic</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$C$2:$C$3</c:f>
+              <c:f>'AtlÃ©tico vs Athletic'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="6">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>1.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AtlÃ©tico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Athletic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'AtlÃ©tico vs Athletic'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6263,40 +4502,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$B$1</c:f>
+              <c:f>'Barcelona vs CÃ¡diz'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesAfavorUltimas5</c:v>
+                  <c:v>Barcelona</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
+              <c:f>'Barcelona vs CÃ¡diz'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$B$2:$B$3</c:f>
+              <c:f>'Barcelona vs CÃ¡diz'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,428 +4594,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$C$1</c:f>
+              <c:f>'Barcelona vs CÃ¡diz'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>golesEnContraUltimas5</c:v>
+                  <c:v>CÃ¡diz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
+              <c:f>'Barcelona vs CÃ¡diz'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>golesAfavorUltimas5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
+                  <c:v>golesEnContraUltimas5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>maximos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>minimos goles marcados ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maximos goles en contra ultimo5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>minimos goles en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>media gol marcado ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>media gol en contra ultimos5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>puntosFuerza</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>puntosDebilidad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$C$2:$C$3</c:f>
+              <c:f>'Barcelona vs CÃ¡diz'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles marcados ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maximos goles en contra ultimo5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$F$2:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimos goles en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol marcado ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>media gol en contra ultimos5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>1.25</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosFuerza</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>puntosDebilidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CÃ¡diz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Barcelona vs CÃ¡diz'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
